--- a/Stocks/ASIANPAINT.xlsx
+++ b/Stocks/ASIANPAINT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1115.5</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1148.017140258544</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1137.1059334181887</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>42.888726999802593</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>10</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>17</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.58823529411764708</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1143.4476790889228</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>4.6828550032212206</v>
       </c>
       <c r="Y67">
         <v>3.6796782712722482</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1131.5</v>
+      </c>
+      <c r="D83">
+        <v>1159.75</v>
+      </c>
+      <c r="E83">
+        <v>1126.0999999999999</v>
+      </c>
+      <c r="F83">
+        <v>1155.9000000000001</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1147.25</v>
+      </c>
+      <c r="H83">
+        <v>1140.9251660737141</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>1149.471492199646</v>
+      </c>
+      <c r="K83">
+        <v>1127.2862760102441</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>65.494060119992909</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>29.800000000000182</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>33.650000000000091</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.88558692421991381</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V83">
+        <v>1142.0545931074066</v>
+      </c>
+      <c r="W83">
+        <v>1143.1011691895915</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-1.0465760821848562</v>
+      </c>
+      <c r="Y83">
+        <v>-0.279251915754821</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1155</v>
+      </c>
+      <c r="D84">
+        <v>1155</v>
+      </c>
+      <c r="E84">
+        <v>1139.3</v>
+      </c>
+      <c r="F84">
+        <v>1150.2</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1148.1666666666667</v>
+      </c>
+      <c r="H84">
+        <v>1144.5459163701903</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>1150.7000494886136</v>
+      </c>
+      <c r="K84">
+        <v>1129.9559924524121</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>58.346649483866372</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>10.900000000000091</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>15.700000000000045</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.69426751592357061</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1143.3077326293442</v>
+      </c>
+      <c r="W84">
+        <v>1143.6270085088811</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-0.31927587953691727</v>
+      </c>
+      <c r="Y84">
+        <v>-0.28725670851124024</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1149.9000000000001</v>
+      </c>
+      <c r="D85">
+        <v>1160.3499999999999</v>
+      </c>
+      <c r="E85">
+        <v>1144.3</v>
+      </c>
+      <c r="F85">
+        <v>1154</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1152.8833333333332</v>
+      </c>
+      <c r="H85">
+        <v>1148.7146248517618</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>1152.8444829355883</v>
+      </c>
+      <c r="K85">
+        <v>1133.1435496852093</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>61.818921686103032</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>9.7000000000000455</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>16.049999999999955</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.60436137071651541</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1144.9526968402142</v>
+      </c>
+      <c r="W85">
+        <v>1144.3953782489639</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>0.55731859125035044</v>
+      </c>
+      <c r="Y85">
+        <v>-0.1183416485589221</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1146.3499999999999</v>
+      </c>
+      <c r="D86">
+        <v>1174</v>
+      </c>
+      <c r="E86">
+        <v>1144.3</v>
+      </c>
+      <c r="F86">
+        <v>1171</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1163.1000000000001</v>
+      </c>
+      <c r="H86">
+        <v>1155.9073124258809</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>1157.5457089499021</v>
+      </c>
+      <c r="K86">
+        <v>1135.6227608662739</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>73.958529652459447</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>26.700000000000045</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>29.700000000000045</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.89898989898989912</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V86">
+        <v>1148.959974249412</v>
+      </c>
+      <c r="W86">
+        <v>1146.3660909712628</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>2.5938832781491783</v>
+      </c>
+      <c r="Y86">
+        <v>0.42410333678269801</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1174.2</v>
+      </c>
+      <c r="D87">
+        <v>1219</v>
+      </c>
+      <c r="E87">
+        <v>1166</v>
+      </c>
+      <c r="F87">
+        <v>1215</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1200</v>
+      </c>
+      <c r="H87">
+        <v>1177.9536562129406</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1171.202218072146</v>
+      </c>
+      <c r="K87">
+        <v>1142.3732584515465</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>87.163191782697993</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>49</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>53</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.92452830188679247</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>1159.1199782110409</v>
+      </c>
+      <c r="W87">
+        <v>1151.4500842326506</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>7.6698939783902915</v>
+      </c>
+      <c r="Y87">
+        <v>1.8732614651042168</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD87">
+        <f t="shared" si="35"/>
+        <v>1172.05</v>
+      </c>
+      <c r="AE87">
+        <f t="shared" si="36"/>
+        <v>1186.25</v>
+      </c>
+      <c r="AF87">
+        <f t="shared" si="37"/>
+        <v>1192.5</v>
+      </c>
+      <c r="AG87">
+        <f t="shared" si="38"/>
+        <v>1198.75</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1215.9000000000001</v>
+      </c>
+      <c r="D88">
+        <v>1215.9000000000001</v>
+      </c>
+      <c r="E88">
+        <v>1192</v>
+      </c>
+      <c r="F88">
+        <v>1197</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1201.6333333333334</v>
+      </c>
+      <c r="H88">
+        <v>1189.7934947731369</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>1181.135058500558</v>
+      </c>
+      <c r="K88">
+        <v>1153.4014232400916</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>69.215946595180029</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>23.900000000000091</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.20920502092050131</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1164.9476738708809</v>
+      </c>
+      <c r="W88">
+        <v>1154.8241520672691</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>10.123521803611766</v>
+      </c>
+      <c r="Y88">
+        <v>3.5233135328057266</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1201.25</v>
+      </c>
+      <c r="D89">
+        <v>1223.05</v>
+      </c>
+      <c r="E89">
+        <v>1200.4000000000001</v>
+      </c>
+      <c r="F89">
+        <v>1206.05</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1209.8333333333333</v>
+      </c>
+      <c r="H89">
+        <v>1199.8134140532352</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1190.4494899448785</v>
+      </c>
+      <c r="K89">
+        <v>1163.8455514089601</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>72.743120639977747</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>5.6499999999998636</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>22.649999999999864</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.24944812362030452</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1171.2711086599761</v>
+      </c>
+      <c r="W89">
+        <v>1158.6186593215455</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>12.652449338430642</v>
+      </c>
+      <c r="Y89">
+        <v>5.3491406939307096</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1198.3499999999999</v>
+      </c>
+      <c r="D90">
+        <v>1213.45</v>
+      </c>
+      <c r="E90">
+        <v>1198</v>
+      </c>
+      <c r="F90">
+        <v>1204</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1205.1499999999999</v>
+      </c>
+      <c r="H90">
+        <v>1202.4817070266176</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1195.5607144015721</v>
+      </c>
+      <c r="K90">
+        <v>1171.4354288736356</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>70.457298839050992</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>15.450000000000045</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.38834951456310568</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1176.3063227122875</v>
+      </c>
+      <c r="W90">
+        <v>1161.9802401125421</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>14.326082599745405</v>
+      </c>
+      <c r="Y90">
+        <v>7.144529075093649</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1218</v>
+      </c>
+      <c r="D91">
+        <v>1218.8</v>
+      </c>
+      <c r="E91">
+        <v>1193.95</v>
+      </c>
+      <c r="F91">
+        <v>1196.0999999999999</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1202.95</v>
+      </c>
+      <c r="H91">
+        <v>1202.715853513309</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>1200.7250000901117</v>
+      </c>
+      <c r="K91">
+        <v>1176.4386669017165</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>61.194428797379899</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>2.1499999999998636</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>24.849999999999909</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>8.6519114688123594E-2</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1179.351503833474</v>
+      </c>
+      <c r="W91">
+        <v>1164.5076297338353</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>14.843874099638697</v>
+      </c>
+      <c r="Y91">
+        <v>8.6843980800026586</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1195</v>
+      </c>
+      <c r="D92">
+        <v>1206</v>
+      </c>
+      <c r="E92">
+        <v>1190</v>
+      </c>
+      <c r="F92">
+        <v>1204.05</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1200.0166666666667</v>
+      </c>
+      <c r="H92">
+        <v>1201.3662600899879</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>1201.8972222923092</v>
+      </c>
+      <c r="K92">
+        <v>1179.4522964791129</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>66.701212863721452</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>14.049999999999955</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.87812499999999716</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V92">
+        <v>1183.151272474478</v>
+      </c>
+      <c r="W92">
+        <v>1167.4366941979956</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>15.714578276482371</v>
+      </c>
+      <c r="Y92">
+        <v>10.090434119298601</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1206</v>
+      </c>
+      <c r="D93">
+        <v>1241</v>
+      </c>
+      <c r="E93">
+        <v>1199.5999999999999</v>
+      </c>
+      <c r="F93">
+        <v>1238.5</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1226.3666666666666</v>
+      </c>
+      <c r="H93">
+        <v>1213.8664633783274</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1210.5867284495737</v>
+      </c>
+      <c r="K93">
+        <v>1183.9295639281988</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>81.172906437694365</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>38.900000000000091</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>41.400000000000091</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.93961352657004849</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>1191.6664613245582</v>
+      </c>
+      <c r="W93">
+        <v>1172.7006427759218</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>18.965818548636435</v>
+      </c>
+      <c r="Y93">
+        <v>11.865511005166168</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD93">
+        <f t="shared" si="35"/>
+        <v>1204.3</v>
+      </c>
+      <c r="AE93">
+        <f t="shared" si="36"/>
+        <v>1215.4000000000001</v>
+      </c>
+      <c r="AF93">
+        <f t="shared" si="37"/>
+        <v>1220.3</v>
+      </c>
+      <c r="AG93">
+        <f t="shared" si="38"/>
+        <v>1225.2</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1242</v>
+      </c>
+      <c r="D94">
+        <v>1259.95</v>
+      </c>
+      <c r="E94">
+        <v>1236.05</v>
+      </c>
+      <c r="F94">
+        <v>1255.8</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1250.6000000000001</v>
+      </c>
+      <c r="H94">
+        <v>1232.2332316891639</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1221.5563443496685</v>
+      </c>
+      <c r="K94">
+        <v>1195.5118830552658</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>85.208227188195934</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>19.75</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>23.900000000000091</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.82635983263598012</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>1201.5331595823184</v>
+      </c>
+      <c r="W94">
+        <v>1178.8561507184461</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>22.677008863872288</v>
+      </c>
+      <c r="Y94">
+        <v>14.027810576907392</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD94">
+        <f t="shared" si="35"/>
+        <v>1238.75</v>
+      </c>
+      <c r="AE94">
+        <f t="shared" si="36"/>
+        <v>1245.2</v>
+      </c>
+      <c r="AF94">
+        <f t="shared" si="37"/>
+        <v>1248</v>
+      </c>
+      <c r="AG94">
+        <f t="shared" si="38"/>
+        <v>1250.8000000000002</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1250.05</v>
+      </c>
+      <c r="D95">
+        <v>1262</v>
+      </c>
+      <c r="E95">
+        <v>1249</v>
+      </c>
+      <c r="F95">
+        <v>1250</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1253.6666666666667</v>
+      </c>
+      <c r="H95">
+        <v>1242.9499491779152</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>1230.5438233830755</v>
+      </c>
+      <c r="K95">
+        <v>1207.3981312652068</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>78.185394601765978</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>13</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1208.9895965696539</v>
+      </c>
+      <c r="W95">
+        <v>1184.1260654800426</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>24.863531089611342</v>
+      </c>
+      <c r="Y95">
+        <v>16.19495467944818</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1258</v>
+      </c>
+      <c r="D96">
+        <v>1262</v>
+      </c>
+      <c r="E96">
+        <v>1241</v>
+      </c>
+      <c r="F96">
+        <v>1241</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1248</v>
+      </c>
+      <c r="H96">
+        <v>1245.4749745889576</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>1237.5340848535031</v>
+      </c>
+      <c r="K96">
+        <v>1214.8652132062718</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>67.409006124446805</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1213.9142740204763</v>
+      </c>
+      <c r="W96">
+        <v>1188.3389495185579</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>25.575324501918431</v>
+      </c>
+      <c r="Y96">
+        <v>18.071028643942231</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1230.5</v>
+      </c>
+      <c r="D97">
+        <v>1249.6500000000001</v>
+      </c>
+      <c r="E97">
+        <v>1226.2</v>
+      </c>
+      <c r="F97">
+        <v>1247.45</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1241.1000000000001</v>
+      </c>
+      <c r="H97">
+        <v>1243.287487294479</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>1240.2265104416135</v>
+      </c>
+      <c r="K97">
+        <v>1217.3840547159891</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>70.990873317758869</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>21.25</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>23.450000000000045</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.90618336886993422</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V97">
+        <v>1219.0736164788646</v>
+      </c>
+      <c r="W97">
+        <v>1192.7175458505167</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>26.356070628347879</v>
+      </c>
+      <c r="Y97">
+        <v>19.728037040823359</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD97">
+        <f t="shared" si="35"/>
+        <v>1228.8500000000001</v>
+      </c>
+      <c r="AE97">
+        <f t="shared" si="36"/>
+        <v>1235.1500000000001</v>
+      </c>
+      <c r="AF97">
+        <f t="shared" si="37"/>
+        <v>1237.95</v>
+      </c>
+      <c r="AG97">
+        <f t="shared" si="38"/>
+        <v>1240.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1250</v>
+      </c>
+      <c r="D98">
+        <v>1261</v>
+      </c>
+      <c r="E98">
+        <v>1248.8</v>
+      </c>
+      <c r="F98">
+        <v>1252.5</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1254.1000000000001</v>
+      </c>
+      <c r="H98">
+        <v>1248.6937436472394</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>1244.8428414545883</v>
+      </c>
+      <c r="K98">
+        <v>1224.3653758902137</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>73.808092749449244</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>3.7000000000000455</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>12.200000000000045</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.30327868852459278</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1224.2161370205777</v>
+      </c>
+      <c r="W98">
+        <v>1197.1458757875155</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>27.070261233062183</v>
+      </c>
+      <c r="Y98">
+        <v>21.196481879271126</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1262</v>
+      </c>
+      <c r="D99">
+        <v>1262</v>
+      </c>
+      <c r="E99">
+        <v>1249.2</v>
+      </c>
+      <c r="F99">
+        <v>1253</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1254.7333333333333</v>
+      </c>
+      <c r="H99">
+        <v>1251.7135384902863</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>1248.6555433535686</v>
+      </c>
+      <c r="K99">
+        <v>1229.8841812479441</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>74.119159106242194</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>3.7999999999999545</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>12.799999999999955</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.2968749999999975</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1228.6444236327966</v>
+      </c>
+      <c r="W99">
+        <v>1201.2832183217736</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>27.361205311023014</v>
+      </c>
+      <c r="Y99">
+        <v>22.429426565621505</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1256.5</v>
+      </c>
+      <c r="D100">
+        <v>1256.9000000000001</v>
+      </c>
+      <c r="E100">
+        <v>1235</v>
+      </c>
+      <c r="F100">
+        <v>1238.2</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1243.3666666666668</v>
+      </c>
+      <c r="H100">
+        <v>1247.5401025784765</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1250.4876448305533</v>
+      </c>
+      <c r="K100">
+        <v>1231.0210298595121</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>51.492095100722246</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>3.2000000000000455</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>21.900000000000091</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.14611872146118868</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1230.114512304674</v>
+      </c>
+      <c r="W100">
+        <v>1204.0177947423829</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>26.096717562291133</v>
+      </c>
+      <c r="Y100">
+        <v>23.162884764955429</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1238</v>
+      </c>
+      <c r="D101">
+        <v>1247.25</v>
+      </c>
+      <c r="E101">
+        <v>1224.95</v>
+      </c>
+      <c r="F101">
+        <v>1229</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1233.7333333333333</v>
+      </c>
+      <c r="H101">
+        <v>1240.6367179559049</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>1249.7681682015416</v>
+      </c>
+      <c r="K101">
+        <v>1229.6719121129538</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>41.619511403964133</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>4.0499999999999545</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>22.299999999999955</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.18161434977578308</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1229.9430488731857</v>
+      </c>
+      <c r="W101">
+        <v>1205.8683284651693</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>24.074720408016447</v>
+      </c>
+      <c r="Y101">
+        <v>23.345251893567632</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1218.05</v>
+      </c>
+      <c r="D102">
+        <v>1230.2</v>
+      </c>
+      <c r="E102">
+        <v>1204.9000000000001</v>
+      </c>
+      <c r="F102">
+        <v>1215</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1216.7</v>
+      </c>
+      <c r="H102">
+        <v>1228.6683589779525</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1245.4196863789768</v>
+      </c>
+      <c r="K102">
+        <v>1224.1670427545196</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>30.497098655046521</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>10.099999999999909</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>25.299999999999955</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.39920948616600505</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>1227.644118277311</v>
+      </c>
+      <c r="W102">
+        <v>1206.5447485788604</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>21.099369698450573</v>
+      </c>
+      <c r="Y102">
+        <v>22.896075454544221</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1205.1500000000001</v>
+      </c>
+      <c r="D103">
+        <v>1213.45</v>
+      </c>
+      <c r="E103">
+        <v>1192</v>
+      </c>
+      <c r="F103">
+        <v>1201</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1202.1499999999999</v>
+      </c>
+      <c r="H103">
+        <v>1215.4091794889762</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1238.315311628093</v>
+      </c>
+      <c r="K103">
+        <v>1217.0188110312929</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>22.860528979280929</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>21.450000000000045</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.4195804195804187</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1223.5450231577247</v>
+      </c>
+      <c r="W103">
+        <v>1206.1340264619078</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>17.410996695816948</v>
+      </c>
+      <c r="Y103">
+        <v>21.799059702798765</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1187</v>
+      </c>
+      <c r="D104">
+        <v>1189.75</v>
+      </c>
+      <c r="E104">
+        <v>1164</v>
+      </c>
+      <c r="F104">
+        <v>1172</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1175.25</v>
+      </c>
+      <c r="H104">
+        <v>1195.3295897444882</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1227.5230201551835</v>
+      </c>
+      <c r="K104">
+        <v>1205.2368530243389</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>13.868605985607946</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>25.75</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.31067961165048541</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1215.6150195949979</v>
+      </c>
+      <c r="W104">
+        <v>1203.605580057322</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>12.009439537675917</v>
+      </c>
+      <c r="Y104">
+        <v>19.841135669774197</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1173.0999999999999</v>
+      </c>
+      <c r="D105">
+        <v>1178.55</v>
+      </c>
+      <c r="E105">
+        <v>1152.8499999999999</v>
+      </c>
+      <c r="F105">
+        <v>1159.5</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1163.6333333333332</v>
+      </c>
+      <c r="H105">
+        <v>1179.4814615389107</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1216.640126787365</v>
+      </c>
+      <c r="K105">
+        <v>1193.5953301300412</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>11.443424057003112</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>6.6500000000000909</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>25.700000000000045</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.25875486381323265</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>1206.9819396573059</v>
+      </c>
+      <c r="W105">
+        <v>1200.3385000530759</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>6.643439604230025</v>
+      </c>
+      <c r="Y105">
+        <v>17.201596456665364</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>1155</v>
+      </c>
+      <c r="D106">
+        <v>1165</v>
+      </c>
+      <c r="E106">
+        <v>1123</v>
+      </c>
+      <c r="F106">
+        <v>1126.9000000000001</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>1138.3</v>
+      </c>
+      <c r="H106">
+        <v>1158.8907307694553</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>1205.1645430568394</v>
+      </c>
+      <c r="K106">
+        <v>1177.9074789900321</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>7.2884745199815359</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>3.9000000000000909</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>42</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>9.2857142857145025E-2</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V106">
+        <v>1194.6616412484896</v>
+      </c>
+      <c r="W106">
+        <v>1194.8986111602555</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-0.23696991176598203</v>
+      </c>
+      <c r="Y106">
+        <v>13.713883182979094</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" si="35"/>
+        <v>1160.2</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" si="36"/>
+        <v>1148.95</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" si="37"/>
+        <v>1144</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" si="38"/>
+        <v>1139.05</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>1130</v>
+      </c>
+      <c r="D107">
+        <v>1144.95</v>
+      </c>
+      <c r="E107">
+        <v>1127</v>
+      </c>
+      <c r="F107">
+        <v>1131.05</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>1134.3333333333333</v>
+      </c>
+      <c r="H107">
+        <v>1146.6120320513942</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>1191.7835334886529</v>
+      </c>
+      <c r="K107">
+        <v>1166.5947058811362</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>12.352433002581211</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>4.0499999999999545</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>17.950000000000045</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.22562674094707211</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>1184.8752349025681</v>
+      </c>
+      <c r="W107">
+        <v>1190.169084407644</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-5.2938495050759684</v>
+      </c>
+      <c r="Y107">
+        <v>9.9123366453680806</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
